--- a/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
+++ b/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
@@ -1904,14 +1904,14 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="3" max="3" width="83.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="40.2857142857143" customWidth="1"/>
   </cols>

--- a/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
+++ b/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>星期</t>
   </si>
@@ -31,55 +31,64 @@
     <t>学管师</t>
   </si>
   <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>xueguanshi9</t>
+  </si>
+  <si>
     <t>星期一</t>
   </si>
   <si>
+    <t xml:space="preserve">初一 、 初二、 初三 </t>
+  </si>
+  <si>
+    <t>xueguanshi1</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>六年级、七年级、八年级、九年级</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>初一、初二、初三、六年级、七年级、八年级、九年级</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>初一、六年级</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>高中</t>
+  </si>
+  <si>
+    <t>初中、高中</t>
+  </si>
+  <si>
+    <t>初中、高一</t>
+  </si>
+  <si>
+    <t>初一、初二、初三、六年级、七年级、八年级、九年级、高一、高二、高三</t>
+  </si>
+  <si>
     <t>初一、初二、初三</t>
-  </si>
-  <si>
-    <t>xueguanshi1</t>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>六年级、七年级、八年级、九年级</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>初一、初二、初三、六年级、七年级、八年级、九年级</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>初一、六年级</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>初中</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>高中</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>初中、高中</t>
-  </si>
-  <si>
-    <t>初中、高一</t>
-  </si>
-  <si>
-    <t>初一、初二、初三、六年级、七年级、八年级、九年级、高一、高二、高三</t>
   </si>
   <si>
     <t>xueguanshi2</t>
@@ -93,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -119,24 +128,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,70 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +166,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +243,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -279,13 +288,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,169 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +479,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,29 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,183 +579,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,10 +1910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1912,7 +1921,7 @@
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="83.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="40.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1938,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>42233</v>
+        <v>42232</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1955,101 +1964,101 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>42234</v>
+        <v>42233</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42234</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42235</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>42236</v>
+        <v>42235</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>42237</v>
+        <v>42236</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>42238</v>
+        <v>42237</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>42239</v>
+        <v>42238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2057,16 +2066,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>42240</v>
+        <v>42239</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2074,33 +2083,33 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>42241</v>
+        <v>42240</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>42233</v>
+        <v>42241</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2108,101 +2117,101 @@
         <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>42234</v>
+        <v>42233</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>42235</v>
+        <v>42234</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>42236</v>
+        <v>42235</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>42237</v>
+        <v>42236</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>42238</v>
+        <v>42237</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>42239</v>
+        <v>42238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2210,16 +2219,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>42240</v>
+        <v>42239</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2227,33 +2236,33 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>42241</v>
+        <v>42240</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
-        <v>42233</v>
+        <v>42241</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2261,89 +2270,89 @@
         <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>42234</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+        <v>42233</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2">
-        <v>42235</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42234</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42235</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
-        <v>42236</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>42237</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.395833333333333</v>
-      </c>
+        <v>42236</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>42238</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+        <v>42237</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>42239</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42238</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2351,12 +2360,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>42240</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+        <v>42239</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2364,89 +2377,89 @@
         <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>42241</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.395833333333333</v>
-      </c>
+        <v>42240</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>42242</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+        <v>42241</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>42243</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42242</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>42244</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+        <v>42243</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>42245</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.395833333333333</v>
-      </c>
+        <v>42244</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
-        <v>42246</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+        <v>42245</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2454,16 +2467,12 @@
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>42247</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42246</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2471,29 +2480,46 @@
         <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>42248</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+        <v>42247</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2">
         <v>42249</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
         <v>0.395833333333333</v>
       </c>
-      <c r="E36" t="s">
-        <v>23</v>
+      <c r="E37" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
+++ b/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>星期</t>
   </si>
@@ -37,16 +37,13 @@
     <t>初一</t>
   </si>
   <si>
-    <t>xueguanshi9</t>
+    <t>teacherlengjing</t>
   </si>
   <si>
     <t>星期一</t>
   </si>
   <si>
-    <t xml:space="preserve">初一 、 初二、 初三 </t>
-  </si>
-  <si>
-    <t>xueguanshi1</t>
+    <t>初一 、 初二、 初三</t>
   </si>
   <si>
     <t>星期二</t>
@@ -91,10 +88,7 @@
     <t>初一、初二、初三</t>
   </si>
   <si>
-    <t>xueguanshi2</t>
-  </si>
-  <si>
-    <t>xueguanshi3</t>
+    <t>changyanhe</t>
   </si>
 </sst>
 </file>
@@ -102,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,11 +122,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,16 +166,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,21 +214,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -197,21 +241,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -219,15 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,37 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,31 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,151 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,11 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,8 +494,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,30 +520,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,16 +540,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,148 +578,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1913,13 +1907,13 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="22.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="83.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="19.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="40.2857142857143" customWidth="1"/>
@@ -1973,92 +1967,92 @@
         <v>0.395833333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>42234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>42235</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>42236</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>42237</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>42238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2069,13 +2063,13 @@
         <v>42239</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2086,30 +2080,30 @@
         <v>42240</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>42241</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2117,101 +2111,89 @@
         <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>42233</v>
+        <v>42242</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>42234</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42243</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>42235</v>
+        <v>42244</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>42236</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42245</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>42237</v>
+        <v>42246</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>42238</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42247</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2219,16 +2201,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>42239</v>
+        <v>42248</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2236,230 +2218,242 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>42240</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42249</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>42241</v>
+        <v>42250</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>42233</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.395833333333333</v>
-      </c>
+        <v>42251</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
-        <v>42234</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+        <v>42233</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>42235</v>
+        <v>42234</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2">
-        <v>42236</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+        <v>42235</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2">
-        <v>42237</v>
+        <v>42236</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>42238</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+        <v>42237</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>42239</v>
+        <v>42238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>42240</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+        <v>42239</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
-        <v>42241</v>
+        <v>42240</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2">
-        <v>42242</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+        <v>42241</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>42243</v>
+        <v>42242</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2">
-        <v>42244</v>
+        <v>42243</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
-        <v>42245</v>
+        <v>42244</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2467,12 +2461,12 @@
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>42246</v>
+        <v>42245</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2480,46 +2474,46 @@
         <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>42249</v>
+        <v>42248</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
+++ b/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>星期</t>
   </si>
@@ -34,10 +34,13 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>初一</t>
+    <t>初一、空</t>
   </si>
   <si>
     <t>teacherlengjing</t>
+  </si>
+  <si>
+    <t>初二</t>
   </si>
   <si>
     <t>星期一</t>
@@ -96,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,12 +128,133 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,133 +269,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -282,13 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,169 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,69 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,8 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,153 +513,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1907,7 +1910,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1955,13 +1958,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42232</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42233</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="4">
         <v>0.395833333333333</v>
@@ -1972,16 +1975,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42233</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>42234</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1989,16 +1992,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42234</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
-        <v>42235</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2006,16 +2009,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42235</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>42236</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2023,16 +2026,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42236</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>42237</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2040,16 +2043,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42237</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
-        <v>42238</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2057,16 +2060,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>42239</v>
+        <v>42238</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2074,16 +2077,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>42240</v>
+        <v>42239</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2091,16 +2094,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>42241</v>
+        <v>42240</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2108,10 +2111,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42242</v>
+        <v>42241</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
@@ -2125,237 +2128,241 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>42243</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+        <v>42242</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>42244</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42243</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>42245</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+        <v>42244</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>42246</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.395833333333333</v>
-      </c>
+        <v>42245</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>42247</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+        <v>42246</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>42248</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.770833333333333</v>
-      </c>
+        <v>42247</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>42249</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+        <v>42248</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
-        <v>42250</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.395833333333333</v>
-      </c>
+        <v>42249</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
       <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>42251</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+        <v>42250</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>42233</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
         <v>42234</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2">
         <v>42235</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2">
         <v>42236</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
         <v>42237</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>42238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2366,69 +2373,69 @@
         <v>42239</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
         <v>42240</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2">
         <v>42241</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
         <v>42242</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
         <v>42243</v>
@@ -2436,24 +2443,24 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
         <v>42244</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2466,29 +2473,29 @@
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
         <v>42246</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2">
         <v>42247</v>
@@ -2496,24 +2503,24 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>42248</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
+++ b/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
@@ -34,7 +34,7 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>初一、空</t>
+    <t>空</t>
   </si>
   <si>
     <t>teacherlengjing</t>
@@ -100,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -132,9 +132,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,28 +170,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,22 +185,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -207,6 +199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -215,9 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,9 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +260,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -262,15 +270,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,26 +508,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +536,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,17 +566,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,145 +584,145 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1944,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>42232</v>
+        <v>42216</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>42232</v>
+        <v>42217</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1978,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>42233</v>
+        <v>42218</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1995,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>42234</v>
+        <v>42219</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -2012,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>42235</v>
+        <v>42220</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2029,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>42236</v>
+        <v>42221</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -2046,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>42237</v>
+        <v>42222</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2063,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>42238</v>
+        <v>42223</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -2080,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>42239</v>
+        <v>42224</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2097,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>42240</v>
+        <v>42225</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42241</v>
+        <v>42226</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
@@ -2131,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>42242</v>
+        <v>42227</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>24</v>
@@ -2148,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>42243</v>
+        <v>42228</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>42244</v>
+        <v>42229</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -2178,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>42245</v>
+        <v>42230</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -2191,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>42246</v>
+        <v>42231</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2208,7 +2208,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>42247</v>
+        <v>42232</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
@@ -2221,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>42248</v>
+        <v>42233</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2">
-        <v>42249</v>
+        <v>42234</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -2251,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>42250</v>
+        <v>42235</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
@@ -2268,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>42233</v>
+        <v>42216</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
@@ -2285,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="2">
-        <v>42234</v>
+        <v>42217</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -2302,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="2">
-        <v>42235</v>
+        <v>42218</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
@@ -2319,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="2">
-        <v>42236</v>
+        <v>42219</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -2336,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>42237</v>
+        <v>42220</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>18</v>
@@ -2353,7 +2353,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>42238</v>
+        <v>42221</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -2370,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>42239</v>
+        <v>42222</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>21</v>
@@ -2387,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>42240</v>
+        <v>42223</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>22</v>
@@ -2404,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="2">
-        <v>42241</v>
+        <v>42224</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -2421,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>42242</v>
+        <v>42225</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>20</v>
@@ -2438,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>42243</v>
+        <v>42226</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
@@ -2451,7 +2451,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="2">
-        <v>42244</v>
+        <v>42227</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>21</v>
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>42245</v>
+        <v>42228</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
@@ -2481,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>42246</v>
+        <v>42229</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
@@ -2498,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="2">
-        <v>42247</v>
+        <v>42230</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -2511,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="2">
-        <v>42248</v>
+        <v>42231</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>

--- a/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
+++ b/work_package/insert_data_mongo/demo-直播班会时间安排.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="26">
   <si>
     <t>星期</t>
   </si>
@@ -128,14 +129,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -147,8 +140,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -156,7 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,19 +173,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,45 +195,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +224,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -254,13 +232,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -285,13 +286,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,19 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,19 +424,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,31 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +477,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,7 +499,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,17 +549,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,148 +582,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1907,19 +1908,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="19.4285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="22.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="83.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="19.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="40.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="6.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="6" max="16384" width="19.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1944,13 +1946,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>42216</v>
+        <v>42189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1961,13 +1963,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>42217</v>
+        <v>42190</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1978,13 +1980,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>42218</v>
+        <v>42191</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1995,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>42219</v>
+        <v>42192</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -2012,13 +2014,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>42220</v>
+        <v>42193</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2029,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>42221</v>
+        <v>42194</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -2046,13 +2048,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>42222</v>
+        <v>42195</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2063,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>42223</v>
+        <v>42196</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -2080,13 +2082,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>42224</v>
+        <v>42197</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2097,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>42225</v>
+        <v>42198</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -2114,13 +2116,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42226</v>
+        <v>42199</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -2131,13 +2133,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>42227</v>
+        <v>42200</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -2148,10 +2150,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>42228</v>
+        <v>42201</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>42229</v>
+        <v>42202</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -2178,10 +2182,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>42230</v>
+        <v>42203</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -2191,13 +2197,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>42231</v>
+        <v>42204</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -2208,10 +2214,12 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>42232</v>
+        <v>42205</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>42233</v>
+        <v>42206</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -2238,10 +2246,12 @@
         <v>9</v>
       </c>
       <c r="B20" s="2">
-        <v>42234</v>
+        <v>42207</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
@@ -2251,13 +2261,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>42235</v>
+        <v>42208</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -2265,101 +2275,2781 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>42216</v>
+        <v>42209</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D22" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>42217</v>
+        <v>42210</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>42218</v>
+        <v>42211</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>42219</v>
+        <v>42212</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4">
         <v>0.770833333333333</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>42220</v>
+        <v>42213</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4">
-        <v>0.395833333333333</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42214</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42215</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
+      <c r="B29" s="2">
+        <v>42216</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42217</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42218</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42219</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42220</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42221</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42222</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42223</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42224</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42225</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42226</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42227</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42228</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42229</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42230</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42231</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42232</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42233</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42234</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42235</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42236</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42237</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42238</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42239</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42240</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42241</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42242</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42243</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42244</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42245</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42246</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42247</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42249</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42250</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42251</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42252</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42253</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42254</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42255</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42256</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42257</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42258</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42259</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42260</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42261</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42262</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42263</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42264</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42265</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42266</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42267</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42268</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42269</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42270</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42271</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42272</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42273</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42274</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42275</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42276</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42277</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42279</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42280</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="2">
+        <v>42281</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2">
+        <v>42282</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42283</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="2">
+        <v>42284</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="2">
+        <v>42285</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2">
+        <v>42286</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="2">
+        <v>42287</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2">
+        <v>42288</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2">
+        <v>42289</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2">
+        <v>42290</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2">
+        <v>42291</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="2">
+        <v>42292</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="2">
+        <v>42293</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2">
+        <v>42294</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="2">
+        <v>42295</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="2">
+        <v>42296</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2">
+        <v>42297</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2">
+        <v>42298</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="2">
+        <v>42299</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="2">
+        <v>42300</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="2">
+        <v>42301</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="2">
+        <v>42302</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2">
+        <v>42306</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2">
+        <v>42307</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="2">
+        <v>42308</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2">
+        <v>42310</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="2">
+        <v>42313</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="2">
+        <v>42315</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="2">
+        <v>42316</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="2">
+        <v>42322</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2">
+        <v>42323</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="2">
+        <v>42325</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="2">
+        <v>42326</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42327</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2">
+        <v>42329</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="2">
+        <v>42330</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="2">
+        <v>42333</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="2">
+        <v>42335</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="2">
+        <v>42336</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="2">
+        <v>42337</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="2">
+        <v>42338</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="2">
+        <v>42341</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="2">
+        <v>42343</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="2">
+        <v>42344</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="2">
+        <v>42345</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A71" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="6.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42189</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42191</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42192</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42193</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42194</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42195</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42196</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42197</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42198</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42199</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42200</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42201</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42202</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42203</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42204</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42205</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42206</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42207</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42208</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42209</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42210</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42211</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42212</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42213</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
       <c r="B27" s="2">
-        <v>42221</v>
+        <v>42214</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -2367,14 +5057,12 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2">
-        <v>42222</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>42215</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="4">
         <v>0.395833333333333</v>
       </c>
@@ -2384,16 +5072,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>42223</v>
+        <v>42216</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -2401,14 +5089,12 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>42224</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>42217</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="4">
         <v>0.395833333333333</v>
       </c>
@@ -2418,16 +5104,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>42225</v>
+        <v>42218</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -2435,26 +5121,28 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2">
-        <v>42226</v>
+        <v>42219</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>42227</v>
+        <v>42220</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4">
         <v>0.395833333333333</v>
@@ -2465,29 +5153,33 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>42228</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+        <v>42221</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2">
-        <v>42229</v>
+        <v>42222</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4">
-        <v>0.770833333333333</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -2495,31 +5187,2076 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>42230</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+        <v>42223</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.395833333333333</v>
+      </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42224</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42225</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42226</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42227</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42228</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42229</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42230</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42231</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42232</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42233</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42234</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42235</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="2">
-        <v>42231</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B49" s="2">
+        <v>42236</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="4">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D49" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42237</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42238</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42239</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42240</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42241</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42242</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42243</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42244</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42245</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42246</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42247</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42249</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42250</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42251</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42252</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42253</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42254</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42255</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42256</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42257</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42258</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42259</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42260</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42261</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42262</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42263</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42264</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42265</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42266</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42267</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42268</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42269</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42270</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42271</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42272</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42273</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42274</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42275</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42276</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42277</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42279</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42280</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>42281</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="2">
+        <v>42282</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42283</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="2">
+        <v>42284</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="2">
+        <v>42285</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2">
+        <v>42286</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="2">
+        <v>42287</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="2">
+        <v>42288</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="2">
+        <v>42289</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="2">
+        <v>42290</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2">
+        <v>42291</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2">
+        <v>42292</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="2">
+        <v>42293</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2">
+        <v>42294</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="2">
+        <v>42295</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="2">
+        <v>42296</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2">
+        <v>42297</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2">
+        <v>42298</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="2">
+        <v>42299</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2">
+        <v>42300</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2">
+        <v>42301</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2">
+        <v>42302</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="2">
+        <v>42306</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2">
+        <v>42307</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="2">
+        <v>42308</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="2">
+        <v>42310</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>42313</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="2">
+        <v>42315</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="2">
+        <v>42316</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="2">
+        <v>42322</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="2">
+        <v>42323</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="2">
+        <v>42325</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="2">
+        <v>42326</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42327</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2">
+        <v>42329</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="2">
+        <v>42330</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2">
+        <v>42333</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="2">
+        <v>42335</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="2">
+        <v>42336</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="2">
+        <v>42337</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="2">
+        <v>42338</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="2">
+        <v>42341</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="2">
+        <v>42343</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="2">
+        <v>42344</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="2">
+        <v>42345</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" t="s">
         <v>25</v>
       </c>
     </row>
